--- a/Data Files/Data Registrasi.xlsx
+++ b/Data Files/Data Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Katalon Studio\Auction_LelangMobilku\Auction_LelangMobilku\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F20611-CACF-4163-970B-1406F13B7A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7613B5-ED3A-491B-AD15-326244F9A871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5232" yWindow="4476" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>May</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>password123</t>
+  </si>
+  <si>
+    <t>pilihBank</t>
+  </si>
+  <si>
+    <t>BANK LIPPO</t>
+  </si>
+  <si>
+    <t>namaPemilikRekening</t>
+  </si>
+  <si>
+    <t>Rasyid Automation</t>
+  </si>
+  <si>
+    <t>sumberDana</t>
+  </si>
+  <si>
+    <t>Tabungan</t>
+  </si>
+  <si>
+    <t>metodePembayaran</t>
+  </si>
+  <si>
+    <t>Bank Transfer</t>
   </si>
 </sst>
 </file>
@@ -442,19 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -506,8 +531,20 @@
       <c r="Q1" t="s">
         <v>31</v>
       </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -558,6 +595,18 @@
       </c>
       <c r="Q2" t="s">
         <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
